--- a/estructurasDatosWordix.xlsx
+++ b/estructurasDatosWordix.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mixDXI+aB4LTtOYfgg4FvHy9KOjvg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mirhreIJ7zCGVGyQV/v9gU6LWn2Yg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>$coleccionPalabras=</t>
   </si>
@@ -57,14 +57,158 @@
     <t>¿Para qué se utilizada?: guarda las palabras que se pueden utilizar para jugar wordix</t>
   </si>
   <si>
-    <t>**** SEGUIR COMPLETANDO ****</t>
+    <t>$coleccionPartidas=</t>
+  </si>
+  <si>
+    <t>$partida1</t>
+  </si>
+  <si>
+    <t>$partida2</t>
+  </si>
+  <si>
+    <t>$partida3</t>
+  </si>
+  <si>
+    <t>$partida4</t>
+  </si>
+  <si>
+    <t>$partida5</t>
+  </si>
+  <si>
+    <t>$partida6</t>
+  </si>
+  <si>
+    <t>"palabraWordix"</t>
+  </si>
+  <si>
+    <t>"MUJER"</t>
+  </si>
+  <si>
+    <t>"TINTO"</t>
+  </si>
+  <si>
+    <t>"MELON"</t>
+  </si>
+  <si>
+    <t>"HUEVO"</t>
+  </si>
+  <si>
+    <t>"GATOS"</t>
+  </si>
+  <si>
+    <t>"QUESO"</t>
+  </si>
+  <si>
+    <t>"jugador"</t>
+  </si>
+  <si>
+    <t>"Neon"</t>
+  </si>
+  <si>
+    <t>"Exart"</t>
+  </si>
+  <si>
+    <t>"ElKenku"</t>
+  </si>
+  <si>
+    <t>"Planero"</t>
+  </si>
+  <si>
+    <t>"intentos"</t>
+  </si>
+  <si>
+    <t>"puntaje"</t>
+  </si>
+  <si>
+    <t>//claves</t>
+  </si>
+  <si>
+    <t>Tipo: Multidimensional, un arreglo indexado (índices numéricos) que contiene arreglos asociativos (claves string)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipos de datos:  </t>
+  </si>
+  <si>
+    <t>El arreglo indexado almacena valores String, nombres de cada arreglo indexado.</t>
+  </si>
+  <si>
+    <t>El arreglo asociativo almacena en la clave "palabraWordix" un string, en la clave "jugador" un string, en la clave "intentos" se contiene datos enteros, en la clave "puntaje" se contiene un dato entero</t>
+  </si>
+  <si>
+    <t>¿Para qué se utilizada?: guarda informacion de cada partida jugada de wordix</t>
+  </si>
+  <si>
+    <t>$estadisticasJugador=</t>
+  </si>
+  <si>
+    <t>"partidas"</t>
+  </si>
+  <si>
+    <t>"victorias"</t>
+  </si>
+  <si>
+    <t>"intento1"</t>
+  </si>
+  <si>
+    <t>"intento2"</t>
+  </si>
+  <si>
+    <t>"intento3"</t>
+  </si>
+  <si>
+    <t>"intento4"</t>
+  </si>
+  <si>
+    <t>"intento5"</t>
+  </si>
+  <si>
+    <t>"intento6"</t>
+  </si>
+  <si>
+    <t>Tipo: asociativo (las claves son strings)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipos de datos: </t>
+  </si>
+  <si>
+    <t>"jugador" string</t>
+  </si>
+  <si>
+    <t>"partidas" entero</t>
+  </si>
+  <si>
+    <t>"puntaje" entero</t>
+  </si>
+  <si>
+    <t>"victorias" entero</t>
+  </si>
+  <si>
+    <t>"intento1" entero</t>
+  </si>
+  <si>
+    <t>"intento2" entero</t>
+  </si>
+  <si>
+    <t>"intento3" entero</t>
+  </si>
+  <si>
+    <t>"intento4" entero</t>
+  </si>
+  <si>
+    <t>"intento5" entero</t>
+  </si>
+  <si>
+    <t>"intento6" entero</t>
+  </si>
+  <si>
+    <t>¿Para qué se utilizada?: se utiliza para ver las estadisticas de un jugador en particular</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -74,15 +218,15 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11.0"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF6AA84F"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="10.0"/>
       <color rgb="FF00B050"/>
@@ -90,7 +234,13 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
+      <color rgb="FFE69138"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.0"/>
+      <color rgb="FFE69138"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -99,13 +249,51 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF6AA84F"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <color rgb="FF6AA84F"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FFE69138"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <color rgb="FFE69138"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -136,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -150,12 +338,45 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,32 +677,331 @@
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
+      <c r="B13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="C18" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="D18" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="E18" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="C19" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="D19" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="G19" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
     <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="B33" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="B34" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="B35" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="B45" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="46" ht="15.75" customHeight="1"/>
     <row r="47" ht="15.75" customHeight="1"/>
     <row r="48" ht="15.75" customHeight="1"/>
@@ -1437,6 +1957,16 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
